--- a/Documentación/Documentos Generales/Gestión de Cambios.xlsx
+++ b/Documentación/Documentos Generales/Gestión de Cambios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Cliente solicita 1 o más servicios. Los trabajos pueden requerir más de 1 proveedor</t>
+  </si>
+  <si>
+    <t>Word Modelado de Procesos</t>
+  </si>
+  <si>
+    <t>Procesos actualizados</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +623,18 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41519</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>

--- a/Documentación/Documentos Generales/Gestión de Cambios.xlsx
+++ b/Documentación/Documentos Generales/Gestión de Cambios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Visualizar lista de mejores proveedores encontrados</t>
   </si>
   <si>
-    <t>Proceso: Cierre</t>
-  </si>
-  <si>
     <t>Inhabilitación de clientes con 1 sola encuesta pendiente</t>
   </si>
   <si>
@@ -66,15 +63,9 @@
     <t>Terminada v1</t>
   </si>
   <si>
-    <t>Lista Requerimientos</t>
-  </si>
-  <si>
     <t>Historias Usuarios</t>
   </si>
   <si>
-    <t>Proceso: Busqueda</t>
-  </si>
-  <si>
     <t>Cliente solicita 1 o más servicios. Los trabajos pueden requerir más de 1 proveedor</t>
   </si>
   <si>
@@ -82,6 +73,18 @@
   </si>
   <si>
     <t>Procesos actualizados</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>Criterios de encuestas, trabajo proveedor, reportes</t>
+  </si>
+  <si>
+    <t>Proceso: Cierre y Retroalimentación</t>
+  </si>
+  <si>
+    <t>comentario final</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,10 +549,10 @@
         <v>41516</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -560,10 +563,10 @@
         <v>41517</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,10 +577,10 @@
         <v>41517</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,10 +591,10 @@
         <v>41518</v>
       </c>
       <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,10 +605,10 @@
         <v>41518</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,10 +619,10 @@
         <v>41518</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +633,69 @@
         <v>41519</v>
       </c>
       <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>41524</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>41524</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>41524</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>41524</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
   </sheetData>

--- a/Documentación/Documentos Generales/Gestión de Cambios.xlsx
+++ b/Documentación/Documentos Generales/Gestión de Cambios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -84,7 +84,16 @@
     <t>Proceso: Cierre y Retroalimentación</t>
   </si>
   <si>
-    <t>comentario final</t>
+    <t>Comentario al final del proceso</t>
+  </si>
+  <si>
+    <t>Req. 49 Integración con Google Maps</t>
+  </si>
+  <si>
+    <t>Diagrama de Clases</t>
+  </si>
+  <si>
+    <t>Latitud y Longitud por default en 'Distrito'</t>
   </si>
 </sst>
 </file>
@@ -447,7 +456,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +702,34 @@
       </c>
       <c r="D17" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>41530</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>41530</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">

--- a/Documentación/Documentos Generales/Gestión de Cambios.xlsx
+++ b/Documentación/Documentos Generales/Gestión de Cambios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="18915" windowHeight="7740"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="18915" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +94,27 @@
   </si>
   <si>
     <t>Latitud y Longitud por default en 'Distrito'</t>
+  </si>
+  <si>
+    <t>EDT</t>
+  </si>
+  <si>
+    <t>Mockups: Registrar Ubicación</t>
+  </si>
+  <si>
+    <t>nuevo mockup</t>
+  </si>
+  <si>
+    <t>Diagram de Gantt</t>
+  </si>
+  <si>
+    <t>Quitada palabra Tabu, Quitada Diagrama de BD, Movido Analisis Herramientas de Analisis a Diseño</t>
+  </si>
+  <si>
+    <t>Plan de Proyecto</t>
+  </si>
+  <si>
+    <t>Diagrama de Gantt</t>
   </si>
 </sst>
 </file>
@@ -453,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,8 +753,58 @@
         <v>25</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>41532</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>41532</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>41532</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>41532</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentación/Documentos Generales/Gestión de Cambios.xlsx
+++ b/Documentación/Documentos Generales/Gestión de Cambios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Diagrama de Gantt</t>
+  </si>
+  <si>
+    <t>Req no funcional: pase a produccion windows server 2008 - R66</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,6 +807,20 @@
       </c>
       <c r="D23" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>41532</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
